--- a/Create-InstallLocation/LocInst.xlsx
+++ b/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mao8ct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63647488-0D7F-4FC2-8E8C-E702EC3CE324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF7A0D-7784-4265-B92C-5B8742E26EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Norma</t>
   </si>
   <si>
     <t>Quantidade</t>
-  </si>
-  <si>
-    <t>LocInst</t>
-  </si>
-  <si>
-    <t>6854D110-412</t>
   </si>
 </sst>
 </file>
@@ -434,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D997F1F-30FE-4A2A-B694-A9178A4FC344}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,235 +441,140 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4718301303</v>
       </c>
       <c r="B2" s="1">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4718301617</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4718301818</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4718301756</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4718301787</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4718301615</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4718301818</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4718301756</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4718301787</v>
+        <v>4718301772</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4718301772</v>
+        <v>4728701146</v>
       </c>
       <c r="B8" s="1">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4718301303</v>
+        <v>4718301609</v>
       </c>
       <c r="B9" s="1">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4728701146</v>
+        <v>4718301697</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4718301609</v>
+        <v>4718301461</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4718301697</v>
+        <v>4718301814</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4728700997</v>
+        <v>4718301815</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4718301461</v>
+        <v>4718301805</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4718301814</v>
+        <v>4718301819</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>4718301815</v>
+        <v>4718301758</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4718301805</v>
+        <v>4718301759</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4718301819</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4718301798</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4718301758</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>4718301759</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Create-InstallLocation/LocInst.xlsx
+++ b/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mao8ct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF7A0D-7784-4265-B92C-5B8742E26EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE67B6C-9FCF-4280-BFE4-46D1D8351109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D997F1F-30FE-4A2A-B694-A9178A4FC344}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,23 +451,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4718301303</v>
+        <v>4718301787</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4718301617</v>
+        <v>4718301772</v>
       </c>
       <c r="B3" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4718301818</v>
+        <v>4728701146</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -475,31 +475,31 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4718301756</v>
+        <v>4718301609</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4718301787</v>
+        <v>4718301697</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4718301772</v>
+        <v>4718301461</v>
       </c>
       <c r="B7" s="1">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4728701146</v>
+        <v>4718301814</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -507,23 +507,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4718301609</v>
+        <v>4718301815</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4718301697</v>
+        <v>4718301805</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4718301461</v>
+        <v>4718301819</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -531,49 +531,17 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4718301814</v>
+        <v>4718301758</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4718301815</v>
+        <v>4718301759</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4718301805</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4718301819</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4718301758</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>4718301759</v>
-      </c>
-      <c r="B17" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Create-InstallLocation/LocInst.xlsx
+++ b/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mao8ct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE67B6C-9FCF-4280-BFE4-46D1D8351109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B63878A-EA96-44EF-BED0-565DD93A41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D997F1F-30FE-4A2A-B694-A9178A4FC344}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,23 +451,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4718301787</v>
+        <v>4718301815</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4718301772</v>
+        <v>4718301805</v>
       </c>
       <c r="B3" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4728701146</v>
+        <v>4718301819</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -475,78 +475,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4718301609</v>
+        <v>4718301758</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4718301697</v>
+        <v>4718301759</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4718301461</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4718301814</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4718301815</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4718301805</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4718301819</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4718301758</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4718301759</v>
-      </c>
-      <c r="B13" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>